--- a/biology/Médecine/Pénicillamine/Pénicillamine.xlsx
+++ b/biology/Médecine/Pénicillamine/Pénicillamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9nicillamine</t>
+          <t>Pénicillamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La pénicillamine est un acide α-aminé. Son énantiomère D est utilisé comme médicament chélateur[3], ou comme immunosuppresseur pour traiter la polyarthrite rhumatoïde en réduisant le nombre de lymphocytes T, en inhibant les macrophages, en réduisant l'activité de l'interleukine 1 et du facteur rhumatoïde et en prévenant la réticulation du collagène[4].
+La pénicillamine est un acide α-aminé. Son énantiomère D est utilisé comme médicament chélateur, ou comme immunosuppresseur pour traiter la polyarthrite rhumatoïde en réduisant le nombre de lymphocytes T, en inhibant les macrophages, en réduisant l'activité de l'interleukine 1 et du facteur rhumatoïde et en prévenant la réticulation du collagène.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9nicillamine</t>
+          <t>Pénicillamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'énantiomère L est toxique car il inhibe l'action de la pyridoxine[5]. Il s'agit d'un métabolite de la pénicilline qui ne présente pas d'action antibiotique[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'énantiomère L est toxique car il inhibe l'action de la pyridoxine. Il s'agit d'un métabolite de la pénicilline qui ne présente pas d'action antibiotique. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9nicillamine</t>
+          <t>Pénicillamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Comme chélateur, elle peut être utilisée pour traiter :
-la maladie de Wilson, anomalie génétique du métabolisme du cuivre, dans laquelle la pénicillamine chélate le cuivre afin de permettre son élimination par voie urinaire[3] ;
-la cystinurie, anomalie génétique conduisant à la précipitation d'un calcul de cystine, dans laquelle la pénicillamine se lie à la cystéine pour former un disulfure plus soluble que la cystine[6] ;
+la maladie de Wilson, anomalie génétique du métabolisme du cuivre, dans laquelle la pénicillamine chélate le cuivre afin de permettre son élimination par voie urinaire ;
+la cystinurie, anomalie génétique conduisant à la précipitation d'un calcul de cystine, dans laquelle la pénicillamine se lie à la cystéine pour former un disulfure plus soluble que la cystine ;
 la sclérodermie ;
-l'intoxication à l'arsenic en seconde intention après le dimercaprol (BAL)[7], mais son utilisation à cette fin n'est plus recommandée[8].</t>
+l'intoxication à l'arsenic en seconde intention après le dimercaprol (BAL), mais son utilisation à cette fin n'est plus recommandée.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9nicillamine</t>
+          <t>Pénicillamine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Effets secondaires et contre-indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus courants sont la dépression médullaire, la dysgueusie, l'anorexie, les vomissements et la diarrhée, se produisant chez 20 à 30 % des patients traités à la pénicillamine[4],[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus courants sont la dépression médullaire, la dysgueusie, l'anorexie, les vomissements et la diarrhée, se produisant chez 20 à 30 % des patients traités à la pénicillamine,.
 La pénicillamine peut avoir d'autre effets secondaires tels qu'une néphropathie, une hépatotoxicité, une glomérulonéphrite extramembraneuse, une anémie aplasique (idiosyncratique), un syndrome myasthénique de Lambert-Eaton, un lupus érythémateux disséminé, une myopathie toxique, voire une croissance des seins.
 Contre-indications : cette molécule est contre-indiquée chez les personnes présentant une hypersensibilité à la pénicillamine ou une myasthénie.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A9nicillamine</t>
+          <t>Pénicillamine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pénicillamine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pénicillamine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
